--- a/OrangeHRMWebApplication/artifact/data/OHRM_02_features.data.xlsx
+++ b/OrangeHRMWebApplication/artifact/data/OHRM_02_features.data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="500"/>
+    <workbookView windowWidth="14100" windowHeight="12240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
   <si>
     <t>nexial.scope.fallbackToPrevious</t>
   </si>
@@ -76,7 +76,28 @@
     <t>nexial.browser</t>
   </si>
   <si>
-    <t>chrome</t>
+    <t>browserstack</t>
+  </si>
+  <si>
+    <t>nexial.browserstack.username</t>
+  </si>
+  <si>
+    <t>sandhiyamunisamy1</t>
+  </si>
+  <si>
+    <t>nexial.browserstack.automateKey</t>
+  </si>
+  <si>
+    <t>rNG6nSGKb3vEz5bJ5pqW</t>
+  </si>
+  <si>
+    <t>nexial.browserstack.enablelocal</t>
+  </si>
+  <si>
+    <t>nexial.browserstack.reportStatus</t>
+  </si>
+  <si>
+    <t>script</t>
   </si>
   <si>
     <t>url</t>
@@ -192,10 +213,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -245,6 +266,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -252,7 +280,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,11 +302,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -282,8 +325,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,6 +341,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -307,29 +380,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,43 +400,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -389,187 +410,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,82 +619,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -695,10 +645,81 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -716,130 +737,130 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1272,10 +1293,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AAA202"/>
+  <dimension ref="A1:AAA206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1371,7 +1392,7 @@
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="HA9" s="7"/>
@@ -1391,107 +1412,115 @@
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>19</v>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="HA11" s="7"/>
       <c r="AAA11" s="8"/>
     </row>
     <row r="12" ht="23" customHeight="1" spans="1:703">
       <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="HA12" s="7"/>
       <c r="AAA12" s="8"/>
     </row>
     <row r="13" ht="23" customHeight="1" spans="1:703">
       <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="HA13" s="7"/>
       <c r="AAA13" s="8"/>
     </row>
-    <row r="14" ht="23" customHeight="1" spans="1:2">
+    <row r="14" ht="23" customHeight="1" spans="1:703">
       <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="HA14" s="7"/>
+      <c r="AAA14" s="8"/>
+    </row>
+    <row r="15" ht="23" customHeight="1" spans="1:703">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" ht="23" customHeight="1" spans="1:2">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="HA15" s="7"/>
+      <c r="AAA15" s="8"/>
+    </row>
+    <row r="16" ht="23" customHeight="1" spans="1:703">
+      <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" ht="23" customHeight="1" spans="1:2">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="HA16" s="7"/>
+      <c r="AAA16" s="8"/>
+    </row>
+    <row r="17" ht="23" customHeight="1" spans="1:703">
+      <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" ht="23" customHeight="1" spans="1:2">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="HA17" s="7"/>
+      <c r="AAA17" s="8"/>
     </row>
     <row r="18" ht="23" customHeight="1" spans="1:2">
       <c r="A18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="19" ht="23" customHeight="1" spans="1:2">
       <c r="A19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="20" ht="23" customHeight="1" spans="1:2">
       <c r="A20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="21" ht="23" customHeight="1" spans="1:2">
       <c r="A21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="22" ht="23" customHeight="1" spans="1:2">
       <c r="A22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="23" ht="23" customHeight="1" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>42</v>
@@ -1510,29 +1539,57 @@
         <v>45</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" ht="23" customHeight="1" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" ht="23" customHeight="1" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="28" ht="23" customHeight="1"/>
-    <row r="29" ht="23" customHeight="1"/>
-    <row r="30" ht="23" customHeight="1"/>
-    <row r="31" ht="23" customHeight="1"/>
+    <row r="28" ht="23" customHeight="1" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" ht="23" customHeight="1" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" ht="23" customHeight="1" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" ht="23" customHeight="1" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
     <row r="32" ht="23" customHeight="1"/>
     <row r="33" ht="23" customHeight="1"/>
     <row r="34" ht="23" customHeight="1"/>
@@ -1704,6 +1761,10 @@
     <row r="200" ht="23" customHeight="1"/>
     <row r="201" ht="23" customHeight="1"/>
     <row r="202" ht="23" customHeight="1"/>
+    <row r="203" ht="23" customHeight="1"/>
+    <row r="204" ht="23" customHeight="1"/>
+    <row r="205" ht="23" customHeight="1"/>
+    <row r="206" ht="23" customHeight="1"/>
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A$1:A$1048576">
@@ -1717,7 +1778,7 @@
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B10 B17:B1048576">
+  <conditionalFormatting sqref="B1:B14 B21:B1048576">
     <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="sentry.scope."</formula>
     </cfRule>
@@ -1726,7 +1787,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1" display="https://www.orangehrm.com/"/>
+    <hyperlink ref="B13" r:id="rId1" display="https://www.orangehrm.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>

--- a/OrangeHRMWebApplication/artifact/data/OHRM_02_features.data.xlsx
+++ b/OrangeHRMWebApplication/artifact/data/OHRM_02_features.data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14100" windowHeight="12240" tabRatio="500"/>
+    <workbookView windowWidth="14100" windowHeight="9045" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
   <si>
     <t>nexial.scope.fallbackToPrevious</t>
   </si>
@@ -79,6 +79,12 @@
     <t>browserstack</t>
   </si>
   <si>
+    <t>nexial.browserstack.browser</t>
+  </si>
+  <si>
+    <t>chrome</t>
+  </si>
+  <si>
     <t>nexial.browserstack.username</t>
   </si>
   <si>
@@ -91,13 +97,13 @@
     <t>rNG6nSGKb3vEz5bJ5pqW</t>
   </si>
   <si>
-    <t>nexial.browserstack.enablelocal</t>
+    <t>browserstack.local</t>
   </si>
   <si>
     <t>nexial.browserstack.reportStatus</t>
   </si>
   <si>
-    <t>script</t>
+    <t>execution</t>
   </si>
   <si>
     <t>url</t>
@@ -214,9 +220,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -266,13 +272,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -281,6 +280,120 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,113 +406,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -410,187 +416,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,24 +634,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -657,17 +645,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -688,6 +665,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -702,24 +694,38 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -737,130 +743,130 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1293,10 +1299,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AAA206"/>
+  <dimension ref="A1:AAA207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1373,7 +1379,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="HA7" s="7"/>
       <c r="AAA7" s="8"/>
@@ -1413,17 +1419,17 @@
         <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="HA11" s="7"/>
       <c r="AAA11" s="8"/>
     </row>
     <row r="12" ht="23" customHeight="1" spans="1:703">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="HA12" s="7"/>
       <c r="AAA12" s="8"/>
@@ -1432,7 +1438,7 @@
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="HA13" s="7"/>
@@ -1442,7 +1448,7 @@
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="4" t="s">
         <v>24</v>
       </c>
       <c r="HA14" s="7"/>
@@ -1452,7 +1458,7 @@
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="HA15" s="7"/>
@@ -1478,13 +1484,15 @@
       <c r="HA17" s="7"/>
       <c r="AAA17" s="8"/>
     </row>
-    <row r="18" ht="23" customHeight="1" spans="1:2">
+    <row r="18" ht="23" customHeight="1" spans="1:703">
       <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="HA18" s="7"/>
+      <c r="AAA18" s="8"/>
     </row>
     <row r="19" ht="23" customHeight="1" spans="1:2">
       <c r="A19" s="1" t="s">
@@ -1506,7 +1514,7 @@
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="5" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1555,12 +1563,12 @@
         <v>49</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" ht="23" customHeight="1" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>51</v>
@@ -1571,12 +1579,12 @@
         <v>52</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" ht="23" customHeight="1" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>54</v>
@@ -1590,7 +1598,14 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" ht="23" customHeight="1"/>
+    <row r="32" ht="23" customHeight="1" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
     <row r="33" ht="23" customHeight="1"/>
     <row r="34" ht="23" customHeight="1"/>
     <row r="35" ht="23" customHeight="1"/>
@@ -1765,6 +1780,7 @@
     <row r="204" ht="23" customHeight="1"/>
     <row r="205" ht="23" customHeight="1"/>
     <row r="206" ht="23" customHeight="1"/>
+    <row r="207" ht="23" customHeight="1"/>
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A$1:A$1048576">
@@ -1778,7 +1794,7 @@
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B14 B21:B1048576">
+  <conditionalFormatting sqref="B1:B15 B22:B1048576">
     <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="sentry.scope."</formula>
     </cfRule>
@@ -1787,7 +1803,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B13" r:id="rId1" display="https://www.orangehrm.com/"/>
+    <hyperlink ref="B14" r:id="rId1" display="https://www.orangehrm.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>

--- a/OrangeHRMWebApplication/artifact/data/OHRM_02_features.data.xlsx
+++ b/OrangeHRMWebApplication/artifact/data/OHRM_02_features.data.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
   <si>
     <t>nexial.scope.fallbackToPrevious</t>
   </si>
@@ -79,31 +79,16 @@
     <t>browserstack</t>
   </si>
   <si>
-    <t>nexial.browserstack.browser</t>
-  </si>
-  <si>
-    <t>chrome</t>
-  </si>
-  <si>
     <t>nexial.browserstack.username</t>
   </si>
   <si>
     <t>sandhiyamunisamy1</t>
   </si>
   <si>
-    <t>nexial.browserstack.automateKey</t>
+    <t>nexial.browserstack.automatekey</t>
   </si>
   <si>
     <t>rNG6nSGKb3vEz5bJ5pqW</t>
-  </si>
-  <si>
-    <t>browserstack.local</t>
-  </si>
-  <si>
-    <t>nexial.browserstack.reportStatus</t>
-  </si>
-  <si>
-    <t>execution</t>
   </si>
   <si>
     <t>url</t>
@@ -1299,10 +1284,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AAA207"/>
+  <dimension ref="A1:AAA204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A11" sqref="$A11:$XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1418,7 +1403,7 @@
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
       <c r="HA11" s="7"/>
@@ -1429,122 +1414,116 @@
         <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="HA12" s="7"/>
       <c r="AAA12" s="8"/>
     </row>
     <row r="13" ht="23" customHeight="1" spans="1:703">
       <c r="A13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="HA13" s="7"/>
       <c r="AAA13" s="8"/>
     </row>
     <row r="14" ht="23" customHeight="1" spans="1:703">
       <c r="A14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="4" t="s">
         <v>24</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="HA14" s="7"/>
       <c r="AAA14" s="8"/>
     </row>
     <row r="15" ht="23" customHeight="1" spans="1:703">
       <c r="A15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="2" t="s">
         <v>26</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="HA15" s="7"/>
       <c r="AAA15" s="8"/>
     </row>
-    <row r="16" ht="23" customHeight="1" spans="1:703">
+    <row r="16" ht="23" customHeight="1" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="HA16" s="7"/>
-      <c r="AAA16" s="8"/>
-    </row>
-    <row r="17" ht="23" customHeight="1" spans="1:703">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" ht="23" customHeight="1" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="HA17" s="7"/>
-      <c r="AAA17" s="8"/>
-    </row>
-    <row r="18" ht="23" customHeight="1" spans="1:703">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" ht="23" customHeight="1" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="HA18" s="7"/>
-      <c r="AAA18" s="8"/>
+        <v>33</v>
+      </c>
     </row>
     <row r="19" ht="23" customHeight="1" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="5" t="s">
         <v>34</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="20" ht="23" customHeight="1" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="5" t="s">
         <v>36</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="21" ht="23" customHeight="1" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="5" t="s">
         <v>38</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="22" ht="23" customHeight="1" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" ht="23" customHeight="1" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" ht="23" customHeight="1" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" ht="23" customHeight="1" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>46</v>
@@ -1563,12 +1542,12 @@
         <v>49</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" ht="23" customHeight="1" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>51</v>
@@ -1582,30 +1561,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" ht="23" customHeight="1" spans="1:2">
-      <c r="A30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" ht="23" customHeight="1" spans="1:2">
-      <c r="A31" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" ht="23" customHeight="1" spans="1:2">
-      <c r="A32" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
+    <row r="30" ht="23" customHeight="1"/>
+    <row r="31" ht="23" customHeight="1"/>
+    <row r="32" ht="23" customHeight="1"/>
     <row r="33" ht="23" customHeight="1"/>
     <row r="34" ht="23" customHeight="1"/>
     <row r="35" ht="23" customHeight="1"/>
@@ -1778,9 +1736,6 @@
     <row r="202" ht="23" customHeight="1"/>
     <row r="203" ht="23" customHeight="1"/>
     <row r="204" ht="23" customHeight="1"/>
-    <row r="205" ht="23" customHeight="1"/>
-    <row r="206" ht="23" customHeight="1"/>
-    <row r="207" ht="23" customHeight="1"/>
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A$1:A$1048576">
@@ -1794,7 +1749,7 @@
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B15 B22:B1048576">
+  <conditionalFormatting sqref="B1:B12 B19:B1048576">
     <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="sentry.scope."</formula>
     </cfRule>
@@ -1803,7 +1758,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1" display="https://www.orangehrm.com/"/>
+    <hyperlink ref="B11" r:id="rId1" display="https://www.orangehrm.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
